--- a/BECLEAN/training_set/meta.xlsx
+++ b/BECLEAN/training_set/meta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13610"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="230">
   <si>
     <t>sample_name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>method</t>
   </si>
   <si>
+    <t>run</t>
+  </si>
+  <si>
     <t>0p1ng-labA-automated_rep1</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>automated</t>
   </si>
   <si>
+    <t>run1</t>
+  </si>
+  <si>
     <t>0p1ng-labA-automated_rep2</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t>0p1ng-labA-automated_rep5</t>
+  </si>
+  <si>
+    <t>run2</t>
   </si>
   <si>
     <t>0p1ng-labA-automated_rep6</t>
@@ -702,12 +711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +734,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -732,7 +748,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,22 +769,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,6 +787,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,38 +824,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,9 +839,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,14 +849,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,9 +863,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,19 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +916,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +982,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,31 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,19 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,31 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,17 +1098,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,31 +1159,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,165 +1184,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1689,23 +1691,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="28.6388888888889" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="26.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="5.54545454545455" customWidth="1"/>
-    <col min="7" max="7" width="10.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="21.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="26.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="5.5462962962963" customWidth="1"/>
+    <col min="7" max="7" width="10.6388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,10 +1729,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1679276</v>
@@ -1745,15 +1750,18 @@
         <v>4.52</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>797195</v>
@@ -1768,15 +1776,18 @@
         <v>4.9946</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>663535</v>
@@ -1791,15 +1802,18 @@
         <v>6.3054</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>436393</v>
@@ -1814,15 +1828,18 @@
         <v>7.1868</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>593802</v>
@@ -1837,15 +1854,18 @@
         <v>8.71</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>547369</v>
@@ -1860,15 +1880,18 @@
         <v>9.08</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>590260</v>
@@ -1883,15 +1906,18 @@
         <v>7.21</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>817114</v>
@@ -1906,15 +1932,18 @@
         <v>8.31</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>480127</v>
@@ -1929,15 +1958,18 @@
         <v>10.9836</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>5023937</v>
@@ -1952,15 +1984,18 @@
         <v>3.47</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>5072019</v>
@@ -1975,15 +2010,18 @@
         <v>3.88</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3083440</v>
@@ -1998,15 +2036,18 @@
         <v>2.1</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>3456435</v>
@@ -2021,15 +2062,18 @@
         <v>2.55</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2204419</v>
@@ -2044,15 +2088,18 @@
         <v>1.73</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>4689578</v>
@@ -2067,15 +2114,18 @@
         <v>2.37</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>3921996</v>
@@ -2090,15 +2140,18 @@
         <v>2.22</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>4281129</v>
@@ -2113,15 +2166,18 @@
         <v>2.43</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>1683976</v>
@@ -2136,15 +2192,18 @@
         <v>1.95</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>593685</v>
@@ -2159,15 +2218,18 @@
         <v>5.77</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>775808</v>
@@ -2182,15 +2244,18 @@
         <v>4.47</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>1451448</v>
@@ -2205,15 +2270,18 @@
         <v>8.03</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1208029</v>
@@ -2228,15 +2296,18 @@
         <v>7.38</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>2266572</v>
@@ -2251,15 +2322,18 @@
         <v>10.54</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>515010</v>
@@ -2274,15 +2348,18 @@
         <v>7.8</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>2195760</v>
@@ -2297,15 +2374,18 @@
         <v>5.86</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>807793</v>
@@ -2320,15 +2400,18 @@
         <v>8.5</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>747678</v>
@@ -2343,15 +2426,18 @@
         <v>5.2</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>3472569</v>
@@ -2366,15 +2452,18 @@
         <v>19.21</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>2809140</v>
@@ -2389,15 +2478,18 @@
         <v>18.193</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>3798134</v>
@@ -2412,15 +2504,18 @@
         <v>15.594</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>2507000</v>
@@ -2435,15 +2530,18 @@
         <v>17.289</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>1849494</v>
@@ -2458,15 +2556,18 @@
         <v>26.894</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>2399336</v>
@@ -2481,15 +2582,18 @@
         <v>12.74</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>5249915</v>
@@ -2504,15 +2608,18 @@
         <v>8.69</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>1989010</v>
@@ -2527,15 +2634,18 @@
         <v>11.99</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>1891320</v>
@@ -2550,15 +2660,18 @@
         <v>19.84</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>10579038</v>
@@ -2573,15 +2686,18 @@
         <v>4.7</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>7615496</v>
@@ -2596,15 +2712,18 @@
         <v>3.67</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>9724896</v>
@@ -2619,15 +2738,18 @@
         <v>4.65</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>11271038</v>
@@ -2642,15 +2764,18 @@
         <v>4.33</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>8337216</v>
@@ -2665,15 +2790,18 @@
         <v>4.54</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>10877849</v>
@@ -2688,15 +2816,18 @@
         <v>5.54</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>9875850</v>
@@ -2711,15 +2842,18 @@
         <v>6.58</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>3797864</v>
@@ -2734,15 +2868,18 @@
         <v>2.58</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>12257419</v>
@@ -2757,15 +2894,18 @@
         <v>5.32</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>3995794</v>
@@ -2780,15 +2920,18 @@
         <v>7.26</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>2854337</v>
@@ -2803,15 +2946,18 @@
         <v>10.85</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>7003859</v>
@@ -2826,15 +2972,18 @@
         <v>13.41</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>8079288</v>
@@ -2849,15 +2998,18 @@
         <v>10.6</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>4746389</v>
@@ -2872,15 +3024,18 @@
         <v>12.15</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>2607791</v>
@@ -2895,15 +3050,18 @@
         <v>12.16</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>1957929</v>
@@ -2918,15 +3076,18 @@
         <v>15.01</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>3195099</v>
@@ -2941,15 +3102,18 @@
         <v>13.93</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>4009933</v>
@@ -2964,15 +3128,18 @@
         <v>9.35</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>8738199</v>
@@ -2987,15 +3154,18 @@
         <v>937.9</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>8987864</v>
@@ -3010,15 +3180,18 @@
         <v>1361.65</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>10905853</v>
@@ -3033,15 +3206,18 @@
         <v>949.2</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>12742590</v>
@@ -3056,15 +3232,18 @@
         <v>627.15</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>11824718</v>
@@ -3079,15 +3258,18 @@
         <v>542.26</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>10805161</v>
@@ -3102,15 +3284,18 @@
         <v>615.95</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>12329098</v>
@@ -3125,15 +3310,18 @@
         <v>688.02</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>11227746</v>
@@ -3148,15 +3336,18 @@
         <v>613.89</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>9874283</v>
@@ -3171,15 +3362,18 @@
         <v>864.45</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>14195963</v>
@@ -3194,15 +3388,18 @@
         <v>353.63</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>12827786</v>
@@ -3217,15 +3414,18 @@
         <v>447.82</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>12304854</v>
@@ -3240,15 +3440,18 @@
         <v>448.08</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>12708012</v>
@@ -3263,15 +3466,18 @@
         <v>464.82</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>13506338</v>
@@ -3286,15 +3492,18 @@
         <v>420.58</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>14721813</v>
@@ -3309,15 +3518,18 @@
         <v>368</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>15140796</v>
@@ -3332,15 +3544,18 @@
         <v>439.4</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>13502246</v>
@@ -3355,15 +3570,18 @@
         <v>451</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>12489074</v>
@@ -3378,15 +3596,18 @@
         <v>418.46</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>10333906</v>
@@ -3401,15 +3622,18 @@
         <v>685.03</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>9463203</v>
@@ -3424,15 +3648,18 @@
         <v>560.59</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>10202749</v>
@@ -3447,15 +3674,18 @@
         <v>831.45</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>17705434</v>
@@ -3470,15 +3700,18 @@
         <v>549.97</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>16128195</v>
@@ -3493,15 +3726,18 @@
         <v>707.27</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>13770230</v>
@@ -3516,15 +3752,18 @@
         <v>570.54</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>12203068</v>
@@ -3539,15 +3778,18 @@
         <v>622.59</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>11704464</v>
@@ -3562,15 +3804,18 @@
         <v>575.02</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>11560325</v>
@@ -3585,15 +3830,18 @@
         <v>612.17</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>9250061</v>
@@ -3608,15 +3856,18 @@
         <v>223.74</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>10757372</v>
@@ -3631,15 +3882,18 @@
         <v>197.75</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>8510761</v>
@@ -3654,15 +3908,18 @@
         <v>293.8</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>7794946</v>
@@ -3677,15 +3934,18 @@
         <v>186.45</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>10874882</v>
@@ -3700,15 +3960,18 @@
         <v>141.71</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>9223315</v>
@@ -3723,15 +3986,18 @@
         <v>147.53</v>
       </c>
       <c r="F88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>9738019</v>
@@ -3746,15 +4012,18 @@
         <v>207.92</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>10090323</v>
@@ -3769,15 +4038,18 @@
         <v>125.31</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>8512735</v>
@@ -3792,15 +4064,18 @@
         <v>139.12</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>12758848</v>
@@ -3815,15 +4090,18 @@
         <v>64.12</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>16836889</v>
@@ -3838,15 +4116,18 @@
         <v>37.53</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>12089073</v>
@@ -3861,15 +4142,18 @@
         <v>65.87</v>
       </c>
       <c r="F94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>11064410</v>
@@ -3884,15 +4168,18 @@
         <v>68.37</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>12130052</v>
@@ -3907,15 +4194,18 @@
         <v>84.03</v>
       </c>
       <c r="F96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>12630526</v>
@@ -3930,15 +4220,18 @@
         <v>97.13</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>10816998</v>
@@ -3953,15 +4246,18 @@
         <v>95.42</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B99">
         <v>10812709</v>
@@ -3976,15 +4272,18 @@
         <v>113.3</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>11061140</v>
@@ -3999,15 +4298,18 @@
         <v>102.6</v>
       </c>
       <c r="F100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>9217349</v>
@@ -4022,15 +4324,18 @@
         <v>147.71</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>9118522</v>
@@ -4045,15 +4350,18 @@
         <v>134.96</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>8339699</v>
@@ -4068,15 +4376,18 @@
         <v>149.72</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>17975120</v>
@@ -4091,15 +4402,18 @@
         <v>111.9</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B105">
         <v>20356633</v>
@@ -4114,15 +4428,18 @@
         <v>124.3</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>14073315</v>
@@ -4137,15 +4454,18 @@
         <v>110.73</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>9123326</v>
@@ -4160,15 +4480,18 @@
         <v>149.99</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>8724370</v>
@@ -4183,15 +4506,18 @@
         <v>167.32</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B109">
         <v>8035511</v>
@@ -4206,15 +4532,18 @@
         <v>137.5</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B110">
         <v>4454696</v>
@@ -4229,15 +4558,18 @@
         <v>39.098</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B111">
         <v>6456347</v>
@@ -4252,15 +4584,18 @@
         <v>20.792</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B112">
         <v>6385433</v>
@@ -4275,15 +4610,18 @@
         <v>24.295</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B113">
         <v>9288942</v>
@@ -4298,15 +4636,18 @@
         <v>18.306</v>
       </c>
       <c r="F113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>3415083</v>
@@ -4321,15 +4662,18 @@
         <v>35.03</v>
       </c>
       <c r="F114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>6240303</v>
@@ -4344,15 +4688,18 @@
         <v>17.63</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>4718301</v>
@@ -4367,15 +4714,18 @@
         <v>17.33</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B117">
         <v>6596967</v>
@@ -4390,15 +4740,18 @@
         <v>15.68</v>
       </c>
       <c r="F117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B118">
         <v>4267557</v>
@@ -4413,15 +4766,18 @@
         <v>15.18</v>
       </c>
       <c r="F118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B119">
         <v>11765790</v>
@@ -4436,15 +4792,18 @@
         <v>9.26</v>
       </c>
       <c r="F119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B120">
         <v>9705157</v>
@@ -4459,15 +4818,18 @@
         <v>7.31</v>
       </c>
       <c r="F120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>12474033</v>
@@ -4482,15 +4844,18 @@
         <v>9.36</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B122">
         <v>11925065</v>
@@ -4505,15 +4870,18 @@
         <v>11.93</v>
       </c>
       <c r="F122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B123">
         <v>10357346</v>
@@ -4528,15 +4896,18 @@
         <v>13.66</v>
       </c>
       <c r="F123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B124">
         <v>11782977</v>
@@ -4551,15 +4922,18 @@
         <v>10.63</v>
       </c>
       <c r="F124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B125">
         <v>11634355</v>
@@ -4574,15 +4948,18 @@
         <v>3.36</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B126">
         <v>11733848</v>
@@ -4597,15 +4974,18 @@
         <v>12.18</v>
       </c>
       <c r="F126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B127">
         <v>11245685</v>
@@ -4620,15 +5000,18 @@
         <v>11.74</v>
       </c>
       <c r="F127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B128">
         <v>4999978</v>
@@ -4643,15 +5026,18 @@
         <v>16.1</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B129">
         <v>6278966</v>
@@ -4666,15 +5052,18 @@
         <v>16.91</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B130">
         <v>9179860</v>
@@ -4689,15 +5078,18 @@
         <v>22.06</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B131">
         <v>7176631</v>
@@ -4712,15 +5104,18 @@
         <v>21.83</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>8547274</v>
@@ -4735,15 +5130,18 @@
         <v>16.71</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B133">
         <v>3441091</v>
@@ -4758,15 +5156,18 @@
         <v>23.86</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B134">
         <v>5840340</v>
@@ -4781,15 +5182,18 @@
         <v>18.38</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B135">
         <v>6468548</v>
@@ -4804,15 +5208,18 @@
         <v>19.74</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B136">
         <v>5061779</v>
@@ -4827,15 +5234,18 @@
         <v>19.77</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B137">
         <v>6273892</v>
@@ -4850,15 +5260,18 @@
         <v>35.934</v>
       </c>
       <c r="F137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B138">
         <v>7543461</v>
@@ -4873,15 +5286,18 @@
         <v>30.962</v>
       </c>
       <c r="F138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B139">
         <v>6208005</v>
@@ -4896,15 +5312,18 @@
         <v>40.567</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B140">
         <v>3403301</v>
@@ -4919,15 +5338,18 @@
         <v>55.935</v>
       </c>
       <c r="F140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B141">
         <v>7429348</v>
@@ -4942,15 +5364,18 @@
         <v>33.335</v>
       </c>
       <c r="F141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B142">
         <v>6470483</v>
@@ -4965,15 +5390,18 @@
         <v>23.58</v>
       </c>
       <c r="F142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B143">
         <v>4917208</v>
@@ -4988,15 +5416,18 @@
         <v>35.82</v>
       </c>
       <c r="F143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B144">
         <v>5589495</v>
@@ -5011,15 +5442,18 @@
         <v>30.97</v>
       </c>
       <c r="F144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B145">
         <v>4486772</v>
@@ -5034,15 +5468,18 @@
         <v>29.92</v>
       </c>
       <c r="F145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B146">
         <v>10803476</v>
@@ -5057,15 +5494,18 @@
         <v>14.76</v>
       </c>
       <c r="F146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B147">
         <v>10227257</v>
@@ -5080,15 +5520,18 @@
         <v>12.04</v>
       </c>
       <c r="F147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B148">
         <v>8214541</v>
@@ -5103,15 +5546,18 @@
         <v>15.89</v>
       </c>
       <c r="F148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B149">
         <v>10671514</v>
@@ -5126,15 +5572,18 @@
         <v>19.73</v>
       </c>
       <c r="F149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B150">
         <v>10491369</v>
@@ -5149,15 +5598,18 @@
         <v>20.6</v>
       </c>
       <c r="F150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B151">
         <v>5108594</v>
@@ -5172,15 +5624,18 @@
         <v>15.78</v>
       </c>
       <c r="F151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B152">
         <v>12127937</v>
@@ -5195,15 +5650,18 @@
         <v>21.16</v>
       </c>
       <c r="F152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B153">
         <v>12094347</v>
@@ -5218,15 +5676,18 @@
         <v>18.19</v>
       </c>
       <c r="F153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B154">
         <v>11195367</v>
@@ -5241,15 +5702,18 @@
         <v>19.36</v>
       </c>
       <c r="F154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B155">
         <v>10832704</v>
@@ -5264,15 +5728,18 @@
         <v>47.4</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B156">
         <v>8573379</v>
@@ -5287,15 +5754,18 @@
         <v>52.95</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B157">
         <v>7707535</v>
@@ -5310,15 +5780,18 @@
         <v>61.2</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B158">
         <v>13503495</v>
@@ -5333,15 +5806,18 @@
         <v>33.9</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B159">
         <v>9633363</v>
@@ -5356,15 +5832,18 @@
         <v>36.86</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B160">
         <v>7009870</v>
@@ -5379,15 +5858,18 @@
         <v>19.89</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B161">
         <v>6606749</v>
@@ -5402,15 +5884,18 @@
         <v>61.76</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B162">
         <v>8517730</v>
@@ -5425,15 +5910,18 @@
         <v>59.02</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B163">
         <v>8642207</v>
@@ -5448,15 +5936,18 @@
         <v>53.6</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B164">
         <v>10150076</v>
@@ -5471,15 +5962,18 @@
         <v>375.16</v>
       </c>
       <c r="F164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B165">
         <v>9136565</v>
@@ -5494,15 +5988,18 @@
         <v>593.25</v>
       </c>
       <c r="F165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B166">
         <v>9677152</v>
@@ -5517,15 +6014,18 @@
         <v>389.85</v>
       </c>
       <c r="F166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B167">
         <v>9185136</v>
@@ -5540,15 +6040,18 @@
         <v>346.91</v>
       </c>
       <c r="F167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B168">
         <v>9966800</v>
@@ -5563,15 +6066,18 @@
         <v>315.69</v>
       </c>
       <c r="F168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B169">
         <v>9758247</v>
@@ -5586,15 +6092,18 @@
         <v>292.52</v>
       </c>
       <c r="F169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B170">
         <v>10519258</v>
@@ -5609,15 +6118,18 @@
         <v>312.34</v>
       </c>
       <c r="F170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B171">
         <v>8377126</v>
@@ -5632,15 +6144,18 @@
         <v>297.15</v>
       </c>
       <c r="F171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B172">
         <v>9157280</v>
@@ -5655,15 +6170,18 @@
         <v>415.275</v>
       </c>
       <c r="F172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B173">
         <v>11185443</v>
@@ -5678,15 +6196,18 @@
         <v>165.9</v>
       </c>
       <c r="F173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B174">
         <v>13222936</v>
@@ -5701,15 +6222,18 @@
         <v>113.62</v>
       </c>
       <c r="F174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B175">
         <v>11720227</v>
@@ -5724,15 +6248,18 @@
         <v>177.47</v>
       </c>
       <c r="F175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B176">
         <v>12428820</v>
@@ -5747,15 +6274,18 @@
         <v>143.61</v>
       </c>
       <c r="F176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B177">
         <v>11902197</v>
@@ -5770,15 +6300,18 @@
         <v>231.18</v>
       </c>
       <c r="F177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B178">
         <v>11189504</v>
@@ -5793,15 +6326,18 @@
         <v>201.01</v>
       </c>
       <c r="F178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B179">
         <v>11858808</v>
@@ -5816,15 +6352,18 @@
         <v>206.4</v>
       </c>
       <c r="F179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B180">
         <v>10980365</v>
@@ -5839,15 +6378,18 @@
         <v>230.2</v>
       </c>
       <c r="F180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B181">
         <v>11395438</v>
@@ -5862,15 +6404,18 @@
         <v>223.1</v>
       </c>
       <c r="F181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B182">
         <v>9423437</v>
@@ -5885,15 +6430,18 @@
         <v>354.92</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B183">
         <v>8931334</v>
@@ -5908,15 +6456,18 @@
         <v>326.03</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B184">
         <v>10651985</v>
@@ -5931,15 +6482,18 @@
         <v>297.28</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B185">
         <v>15718175</v>
@@ -5954,15 +6508,18 @@
         <v>291.77</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B186">
         <v>13780810</v>
@@ -5977,15 +6534,18 @@
         <v>441.38</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B187">
         <v>17335003</v>
@@ -6000,15 +6560,18 @@
         <v>294.93</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B188">
         <v>9557038</v>
@@ -6023,15 +6586,18 @@
         <v>321.71</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B189">
         <v>8890486</v>
@@ -6046,15 +6612,18 @@
         <v>325.67</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B190">
         <v>9672133</v>
@@ -6069,15 +6638,18 @@
         <v>296.32</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B191">
         <v>9645130</v>
@@ -6092,15 +6664,18 @@
         <v>78.422</v>
       </c>
       <c r="F191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B192">
         <v>8969405</v>
@@ -6115,15 +6690,18 @@
         <v>91.304</v>
       </c>
       <c r="F192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B193">
         <v>7196581</v>
@@ -6138,15 +6716,18 @@
         <v>108.593</v>
       </c>
       <c r="F193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B194">
         <v>6944869</v>
@@ -6161,15 +6742,18 @@
         <v>85.767</v>
       </c>
       <c r="F194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B195">
         <v>8641978</v>
@@ -6184,15 +6768,18 @@
         <v>56.58</v>
       </c>
       <c r="F195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B196">
         <v>8603634</v>
@@ -6207,15 +6794,18 @@
         <v>61.2</v>
       </c>
       <c r="F196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B197">
         <v>8890527</v>
@@ -6230,15 +6820,18 @@
         <v>83.281</v>
       </c>
       <c r="F197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G197" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B198">
         <v>9678330</v>
@@ -6253,15 +6846,18 @@
         <v>63.59</v>
       </c>
       <c r="F198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B199">
         <v>7311332</v>
@@ -6276,15 +6872,18 @@
         <v>58.39</v>
       </c>
       <c r="F199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B200">
         <v>14712996</v>
@@ -6299,15 +6898,18 @@
         <v>29.5</v>
       </c>
       <c r="F200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B201">
         <v>10383494</v>
@@ -6322,15 +6924,18 @@
         <v>27.41</v>
       </c>
       <c r="F201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G201" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B202">
         <v>12102808</v>
@@ -6345,15 +6950,18 @@
         <v>28.99</v>
       </c>
       <c r="F202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G202" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B203">
         <v>10715703</v>
@@ -6368,15 +6976,18 @@
         <v>47.17</v>
       </c>
       <c r="F203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B204">
         <v>10582002</v>
@@ -6391,15 +7002,18 @@
         <v>45.97</v>
       </c>
       <c r="F204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B205">
         <v>11475602</v>
@@ -6414,15 +7028,18 @@
         <v>25.33</v>
       </c>
       <c r="F205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B206">
         <v>12380586</v>
@@ -6437,15 +7054,18 @@
         <v>39.96</v>
       </c>
       <c r="F206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G206" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B207">
         <v>13795294</v>
@@ -6460,15 +7080,18 @@
         <v>47.96</v>
       </c>
       <c r="F207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B208">
         <v>13362146</v>
@@ -6483,15 +7106,18 @@
         <v>43.21</v>
       </c>
       <c r="F208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G208" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B209">
         <v>8889412</v>
@@ -6506,15 +7132,18 @@
         <v>85.53</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B210">
         <v>7241960</v>
@@ -6529,15 +7158,18 @@
         <v>83.54</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B211">
         <v>9213706</v>
@@ -6552,15 +7184,18 @@
         <v>76.87</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B212">
         <v>17743249</v>
@@ -6575,15 +7210,18 @@
         <v>70.58</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B213">
         <v>17258189</v>
@@ -6598,15 +7236,18 @@
         <v>72.07</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B214">
         <v>15045997</v>
@@ -6621,15 +7262,18 @@
         <v>81.72</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B215">
         <v>8923567</v>
@@ -6644,15 +7288,18 @@
         <v>82.95</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B216">
         <v>8413911</v>
@@ -6667,15 +7314,18 @@
         <v>84.49</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B217">
         <v>9217651</v>
@@ -6690,10 +7340,13 @@
         <v>72.9</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H217" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
